--- a/files/strainSummaries/ambr/SupData2.xlsx
+++ b/files/strainSummaries/ambr/SupData2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/ambr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D8DDF1B7-4CD9-45DF-9104-6E9C85014064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{40CFFBC2-FB8D-4A15-8715-7DBEC2372FD5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4AF36FD4-36E8-44B1-955F-7A3A320EFA90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{0F9B776A-A44C-49DE-9726-7ED198382F16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Bh</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Trehalose</t>
   </si>
   <si>
-    <t>A6_V7</t>
-  </si>
-  <si>
     <t>Glucose</t>
   </si>
   <si>
@@ -63,73 +60,112 @@
     <t>Butyrate</t>
   </si>
   <si>
-    <t>A6_v8</t>
-  </si>
-  <si>
-    <t>A6_v9</t>
-  </si>
-  <si>
-    <t>A6_v10</t>
-  </si>
-  <si>
-    <t>A6_v11</t>
-  </si>
-  <si>
-    <t>A6_v12</t>
-  </si>
-  <si>
-    <t>A7_c1v1</t>
-  </si>
-  <si>
-    <t>A7_c1v2</t>
-  </si>
-  <si>
-    <t>A7_c1v3</t>
-  </si>
-  <si>
-    <t>A7_c1v4</t>
-  </si>
-  <si>
-    <t>A7_c1v5</t>
-  </si>
-  <si>
-    <t>A7_c1v6</t>
-  </si>
-  <si>
-    <t>A7_c1v7</t>
-  </si>
-  <si>
-    <t>A7_c1v8</t>
-  </si>
-  <si>
-    <t>A7_c1v9</t>
-  </si>
-  <si>
-    <t>A7_c1v11</t>
-  </si>
-  <si>
-    <t>A7_c1v10</t>
-  </si>
-  <si>
-    <t>A7_c1v12</t>
-  </si>
-  <si>
-    <t>A7_c2v7</t>
-  </si>
-  <si>
-    <t>A7_c2v8</t>
-  </si>
-  <si>
-    <t>A7_c2v9</t>
-  </si>
-  <si>
-    <t>A7_c2v10</t>
-  </si>
-  <si>
-    <t>A7_c2v11</t>
-  </si>
-  <si>
-    <t>A7_c2v12</t>
+    <t>A6_V7_t308</t>
+  </si>
+  <si>
+    <t>A6_V7_t88</t>
+  </si>
+  <si>
+    <t>A6_v8_t308</t>
+  </si>
+  <si>
+    <t>A6_v9_t308</t>
+  </si>
+  <si>
+    <t>A6_v9_t88</t>
+  </si>
+  <si>
+    <t>A6_v10_t308</t>
+  </si>
+  <si>
+    <t>A6_v10_t88</t>
+  </si>
+  <si>
+    <t>A6_v11_t308</t>
+  </si>
+  <si>
+    <t>A6_v11_t88</t>
+  </si>
+  <si>
+    <t>A6_v12_t308</t>
+  </si>
+  <si>
+    <t>A6_v12_t88</t>
+  </si>
+  <si>
+    <t>A7_c2v7_t252</t>
+  </si>
+  <si>
+    <t>A7_c2v8_t252</t>
+  </si>
+  <si>
+    <t>A7_c2v9_t252</t>
+  </si>
+  <si>
+    <t>A7_c2v10_t252</t>
+  </si>
+  <si>
+    <t>A7_c2v11_t252</t>
+  </si>
+  <si>
+    <t>A7_c2v12_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v1_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v2_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v3_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v4_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v5_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v6_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v7_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v8_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v9_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v10_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v11_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v12_t252</t>
+  </si>
+  <si>
+    <t>A7_c1v7_t96</t>
+  </si>
+  <si>
+    <t>A7_c1v8_t96</t>
+  </si>
+  <si>
+    <t>A7_c1v9_t96</t>
+  </si>
+  <si>
+    <t>A7_c1v10_t96</t>
+  </si>
+  <si>
+    <t>A7_c1v11_t96</t>
+  </si>
+  <si>
+    <t>A7_c1v12_t96</t>
+  </si>
+  <si>
+    <t>A6_v8_t88</t>
   </si>
 </sst>
 </file>
@@ -481,15 +517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19594B2A-39BD-41D2-859D-B613419C0EDA}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="B1:B1048576 K1:K1048576"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,177 +543,177 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.7432142017692398</v>
       </c>
       <c r="C2">
-        <v>7.0287722776566808</v>
+        <v>2.7159236359046899</v>
       </c>
       <c r="D2">
-        <v>1.4277223433205599E-3</v>
+        <v>2.3683715826931331</v>
       </c>
       <c r="E2">
-        <v>0.5112603130697615</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.99880896270360953</v>
+        <v>5.3918212928848248E-2</v>
       </c>
       <c r="G2">
-        <v>2.260441012497457</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.3928577168747971</v>
+        <v>1.8544112810396829</v>
       </c>
       <c r="I2">
-        <v>3.7107815257307064</v>
+        <v>1.275186149659612</v>
       </c>
       <c r="J2">
-        <v>1.6522900828633098</v>
+        <v>1.068092273301539</v>
       </c>
       <c r="K2">
-        <v>11.224796019553354</v>
+        <v>8.2755351611170997</v>
       </c>
       <c r="L2">
-        <v>6.6213675791772855E-2</v>
+        <v>12.961808509885829</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.9248113739639194</v>
+        <v>7.0287722776566808</v>
       </c>
       <c r="D3">
-        <v>1.7024631886884401E-3</v>
+        <v>1.4277223433205599E-3</v>
       </c>
       <c r="E3">
-        <v>0.50144227720180179</v>
+        <v>0.5112603130697615</v>
       </c>
       <c r="F3">
-        <v>0.56043434266371095</v>
+        <v>0.99880896270360953</v>
       </c>
       <c r="G3">
-        <v>1.2752705899700654</v>
+        <v>2.260441012497457</v>
       </c>
       <c r="H3">
-        <v>9.8607179185121794</v>
+        <v>9.3928577168747971</v>
       </c>
       <c r="I3">
-        <v>5.2523281429071114</v>
+        <v>3.7107815257307064</v>
       </c>
       <c r="J3">
-        <v>1.636674274155151</v>
+        <v>1.6522900828633098</v>
       </c>
       <c r="K3">
-        <v>11.843563678250915</v>
+        <v>11.224796019553354</v>
       </c>
       <c r="L3">
-        <v>0.24879768661317581</v>
+        <v>6.6213675791772855E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.96994889216583002</v>
       </c>
       <c r="C4">
-        <v>7.4938608303585399</v>
+        <v>8.4760690646407699</v>
       </c>
       <c r="D4">
-        <v>1.64801654432586E-3</v>
+        <v>5.6259288820861224</v>
       </c>
       <c r="E4">
-        <v>0.50493747788832155</v>
+        <v>9.8198849267536914E-2</v>
       </c>
       <c r="F4">
-        <v>0.55947599056982145</v>
+        <v>6.1085316837751751E-2</v>
       </c>
       <c r="G4">
-        <v>1.4173542167296813</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>10.174435279521525</v>
+        <v>1.9366790816196848</v>
       </c>
       <c r="I4">
-        <v>4.7467177789695558</v>
+        <v>0.33810239993803576</v>
       </c>
       <c r="J4">
-        <v>1.7840994396057799</v>
+        <v>1.4708412753716533</v>
       </c>
       <c r="K4">
-        <v>12.000024688141076</v>
+        <v>6.0513182578028184</v>
       </c>
       <c r="L4">
-        <v>0.16347789802462398</v>
+        <v>15.404729496661995</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>10.6882177474934</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>11.304718127265401</v>
+        <v>7.9248113739639194</v>
       </c>
       <c r="D5">
-        <v>1.4258557875583611</v>
+        <v>1.7024631886884401E-3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.50144227720180179</v>
       </c>
       <c r="F5">
-        <v>3.578003550194625E-2</v>
+        <v>0.56043434266371095</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.2752705899700654</v>
       </c>
       <c r="H5">
-        <v>2.6666864734591464</v>
+        <v>9.8607179185121794</v>
       </c>
       <c r="I5">
-        <v>0.94568110959759089</v>
+        <v>5.2523281429071114</v>
       </c>
       <c r="J5">
-        <v>1.0765173796918737</v>
+        <v>1.636674274155151</v>
       </c>
       <c r="K5">
-        <v>24.187435232431621</v>
+        <v>11.843563678250915</v>
       </c>
       <c r="L5">
-        <v>12.257165185961258</v>
+        <v>0.24879768661317581</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -685,75 +721,75 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.14288481714569</v>
       </c>
       <c r="C6">
-        <v>8.3603027827474001</v>
+        <v>8.0159576485322006</v>
       </c>
       <c r="D6">
-        <v>1.2774966050912899E-3</v>
+        <v>5.3274653332965753</v>
       </c>
       <c r="E6">
-        <v>0.48150384703649218</v>
+        <v>0.12109994282013935</v>
       </c>
       <c r="F6">
-        <v>0.30241052220424619</v>
+        <v>5.9424550262827197E-2</v>
       </c>
       <c r="G6">
-        <v>0.68887207329662936</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>10.527274557421229</v>
+        <v>1.7948869508620902</v>
       </c>
       <c r="I6">
-        <v>4.6347840357928671</v>
+        <v>0.35712539711486146</v>
       </c>
       <c r="J6">
-        <v>1.6298021784223293</v>
+        <v>1.4060462719905722</v>
       </c>
       <c r="K6">
-        <v>12.194003814117281</v>
+        <v>6.2938509995874004</v>
       </c>
       <c r="L6">
-        <v>0.20818435855583278</v>
+        <v>15.336664512605465</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>14.237899593921002</v>
+        <v>7.4938608303585399</v>
       </c>
       <c r="D7">
-        <v>3.4815374977930511</v>
+        <v>1.64801654432586E-3</v>
       </c>
       <c r="E7">
-        <v>0.38751955455524956</v>
+        <v>0.50493747788832155</v>
       </c>
       <c r="F7">
-        <v>2.403939299036251E-2</v>
+        <v>0.55947599056982145</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.4173542167296813</v>
       </c>
       <c r="H7">
-        <v>5.4418802530733048</v>
+        <v>10.174435279521525</v>
       </c>
       <c r="I7">
-        <v>2.4858089037112987</v>
+        <v>4.7467177789695558</v>
       </c>
       <c r="J7">
-        <v>1.4146858432541396</v>
+        <v>1.7840994396057799</v>
       </c>
       <c r="K7">
-        <v>4.3430830744173496</v>
+        <v>12.000024688141076</v>
       </c>
       <c r="L7">
-        <v>12.170478311653463</v>
+        <v>0.16347789802462398</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -761,75 +797,75 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>8.1783298130534607</v>
+        <v>1.2804431160097101</v>
       </c>
       <c r="C8">
-        <v>11.250071546408702</v>
+        <v>9.8480072367759295</v>
       </c>
       <c r="D8">
-        <v>9.6776902787799308</v>
+        <v>6.8895097213640106</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>8.5438681744195027E-2</v>
       </c>
       <c r="F8">
-        <v>3.2513867574978123E-2</v>
+        <v>6.2391596748707125E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.4369147962896189</v>
+        <v>1.9638227152646726</v>
       </c>
       <c r="I8">
-        <v>2.0514533984750702</v>
+        <v>0.30630374068499638</v>
       </c>
       <c r="J8">
-        <v>0.6735657517962429</v>
+        <v>1.4029319738191777</v>
       </c>
       <c r="K8">
-        <v>20.902421770289461</v>
+        <v>5.737105709729363</v>
       </c>
       <c r="L8">
-        <v>12.474834596163179</v>
+        <v>15.388861845531268</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>9.2116299613608295</v>
+        <v>10.6882177474934</v>
       </c>
       <c r="C9">
-        <v>9.8619701232337995</v>
+        <v>11.304718127265401</v>
       </c>
       <c r="D9">
-        <v>5.9568844883167973</v>
+        <v>1.4258557875583611</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.8958839475374004E-2</v>
+        <v>3.578003550194625E-2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.7659964776989958</v>
+        <v>2.6666864734591464</v>
       </c>
       <c r="I9">
-        <v>2.2230320121306226</v>
+        <v>0.94568110959759089</v>
       </c>
       <c r="J9">
-        <v>0.63529466803890211</v>
+        <v>1.0765173796918737</v>
       </c>
       <c r="K9">
-        <v>19.8705329495622</v>
+        <v>24.187435232431621</v>
       </c>
       <c r="L9">
-        <v>13.166299280933615</v>
+        <v>12.257165185961258</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -837,75 +873,75 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>10.5237789453045</v>
+        <v>0.41506712190579698</v>
       </c>
       <c r="C10">
-        <v>8.6628497256820598</v>
+        <v>6.3206832960629793</v>
       </c>
       <c r="D10">
-        <v>5.014326097551864</v>
+        <v>4.0576717904583148</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.19705353285596289</v>
       </c>
       <c r="F10">
-        <v>2.2718602818830636E-2</v>
+        <v>6.1724894713781342E-2</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.8314656541351781</v>
+        <v>1.9605863263220358</v>
       </c>
       <c r="I10">
-        <v>2.2070532040862871</v>
+        <v>0.27953587072689051</v>
       </c>
       <c r="J10">
-        <v>0.61339148683070766</v>
+        <v>1.5223018440624771</v>
       </c>
       <c r="K10">
-        <v>20.428517586643185</v>
+        <v>4.7912039568832236</v>
       </c>
       <c r="L10">
-        <v>12.212660062560554</v>
+        <v>15.022773122081055</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>10.0464774185516</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>10.184340756381001</v>
+        <v>8.3603027827474001</v>
       </c>
       <c r="D11">
-        <v>3.136599819464617</v>
+        <v>1.2774966050912899E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.48150384703649218</v>
       </c>
       <c r="F11">
-        <v>3.4673196817512811E-2</v>
+        <v>0.30241052220424619</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.68887207329662936</v>
       </c>
       <c r="H11">
-        <v>2.4598299504968382</v>
+        <v>10.527274557421229</v>
       </c>
       <c r="I11">
-        <v>2.374474440775125</v>
+        <v>4.6347840357928671</v>
       </c>
       <c r="J11">
-        <v>0.55399503682310114</v>
+        <v>1.6298021784223293</v>
       </c>
       <c r="K11">
-        <v>21.518842753002545</v>
+        <v>12.194003814117281</v>
       </c>
       <c r="L11">
-        <v>11.991473898738414</v>
+        <v>0.20818435855583278</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -913,317 +949,317 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>11.1283559413099</v>
+        <v>0.86628855889586598</v>
       </c>
       <c r="C12">
-        <v>9.5456257476720197</v>
+        <v>10.7074199883366</v>
       </c>
       <c r="D12">
-        <v>3.45747617903602</v>
+        <v>6.8217305251058606</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.15613372789017688</v>
       </c>
       <c r="F12">
-        <v>3.443291963983685E-2</v>
+        <v>6.2862379372730759E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.088793288817604</v>
+        <v>2.0287396133314943</v>
       </c>
       <c r="I12">
-        <v>1.953201645152731</v>
+        <v>0.29525942550987505</v>
       </c>
       <c r="J12">
-        <v>0.64090889114444793</v>
+        <v>1.6378622649698</v>
       </c>
       <c r="K12">
-        <v>19.575739551838854</v>
+        <v>5.3780877221651666</v>
       </c>
       <c r="L12">
-        <v>12.033618901958777</v>
+        <v>15.817402343889755</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>6.9466100681235101</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.9315915880739603</v>
+        <v>14.237899593921002</v>
       </c>
       <c r="D13">
-        <v>4.977637609484205</v>
+        <v>3.4815374977930511</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.38751955455524956</v>
       </c>
       <c r="F13">
-        <v>2.4846691988397975E-2</v>
+        <v>2.403939299036251E-2</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.0503815449859888</v>
+        <v>5.4418802530733048</v>
       </c>
       <c r="I13">
-        <v>1.0457288013475228</v>
+        <v>2.4858089037112987</v>
       </c>
       <c r="J13">
-        <v>0.72239396585102655</v>
+        <v>1.4146858432541396</v>
       </c>
       <c r="K13">
-        <v>13.878657917323675</v>
+        <v>4.3430830744173496</v>
       </c>
       <c r="L13">
-        <v>14.891511303767768</v>
+        <v>12.170478311653463</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>8.8763249469774692</v>
+        <v>8.1783298130534607</v>
       </c>
       <c r="C14">
-        <v>14.410726219816999</v>
+        <v>11.250071546408702</v>
       </c>
       <c r="D14">
-        <v>3.5337795400232959</v>
+        <v>9.6776902787799308</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.3976808871168489E-2</v>
+        <v>3.2513867574978123E-2</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.2764227963988009</v>
+        <v>2.4369147962896189</v>
       </c>
       <c r="I14">
-        <v>1.9189611610297312</v>
+        <v>2.0514533984750702</v>
       </c>
       <c r="J14">
-        <v>0.59923413355383226</v>
+        <v>0.6735657517962429</v>
       </c>
       <c r="K14">
-        <v>18.331788902543256</v>
+        <v>20.902421770289461</v>
       </c>
       <c r="L14">
-        <v>12.447136027289197</v>
+        <v>12.474834596163179</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>8.9574349964941593</v>
+        <v>9.2116299613608295</v>
       </c>
       <c r="C15">
-        <v>10.5238668146082</v>
+        <v>9.8619701232337995</v>
       </c>
       <c r="D15">
-        <v>6.1576769069535002</v>
+        <v>5.9568844883167973</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.5494119093167202E-2</v>
+        <v>2.8958839475374004E-2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.8677225091776577</v>
+        <v>1.7659964776989958</v>
       </c>
       <c r="I15">
-        <v>1.8919331379622133</v>
+        <v>2.2230320121306226</v>
       </c>
       <c r="J15">
-        <v>0.59090022973904677</v>
+        <v>0.63529466803890211</v>
       </c>
       <c r="K15">
-        <v>18.608947312456664</v>
+        <v>19.8705329495622</v>
       </c>
       <c r="L15">
-        <v>12.183986761296017</v>
+        <v>13.166299280933615</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>7.8086961699317596</v>
+        <v>10.5237789453045</v>
       </c>
       <c r="C16">
-        <v>8.3750199268104808</v>
+        <v>8.6628497256820598</v>
       </c>
       <c r="D16">
-        <v>6.4954349741360282</v>
+        <v>5.014326097551864</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5.2161297460552425E-2</v>
+        <v>2.2718602818830636E-2</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.2018146381406174</v>
+        <v>1.8314656541351781</v>
       </c>
       <c r="I16">
-        <v>1.8830626836133784</v>
+        <v>2.2070532040862871</v>
       </c>
       <c r="J16">
-        <v>0.59009192661399024</v>
+        <v>0.61339148683070766</v>
       </c>
       <c r="K16">
-        <v>20.129685189324874</v>
+        <v>20.428517586643185</v>
       </c>
       <c r="L16">
-        <v>11.875084787937595</v>
+        <v>12.212660062560554</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>9.5776991908105593</v>
+        <v>10.0464774185516</v>
       </c>
       <c r="C17">
-        <v>14.533312471573099</v>
+        <v>10.184340756381001</v>
       </c>
       <c r="D17">
-        <v>6.1452486010004224</v>
+        <v>3.136599819464617</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.3997067628360536E-2</v>
+        <v>3.4673196817512811E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.1514479818003713</v>
+        <v>2.4598299504968382</v>
       </c>
       <c r="I17">
-        <v>1.8366638894472354</v>
+        <v>2.374474440775125</v>
       </c>
       <c r="J17">
-        <v>0.59590186070302342</v>
+        <v>0.55399503682310114</v>
       </c>
       <c r="K17">
-        <v>19.071945623203231</v>
+        <v>21.518842753002545</v>
       </c>
       <c r="L17">
-        <v>12.216271441474108</v>
+        <v>11.991473898738414</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>10.789597181777301</v>
+        <v>11.1283559413099</v>
       </c>
       <c r="C18">
-        <v>11.262479454170698</v>
+        <v>9.5456257476720197</v>
       </c>
       <c r="D18">
-        <v>4.5061739873492739</v>
+        <v>3.45747617903602</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.62129585959966E-2</v>
+        <v>3.443291963983685E-2</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.2300637709788829</v>
+        <v>2.088793288817604</v>
       </c>
       <c r="I18">
-        <v>2.0934791070692653</v>
+        <v>1.953201645152731</v>
       </c>
       <c r="J18">
-        <v>0.5708169616136517</v>
+        <v>0.64090889114444793</v>
       </c>
       <c r="K18">
-        <v>22.004527192691551</v>
+        <v>19.575739551838854</v>
       </c>
       <c r="L18">
-        <v>11.674897171006089</v>
+        <v>12.033618901958777</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>11.015015507992999</v>
+        <v>6.9466100681235101</v>
       </c>
       <c r="C19">
-        <v>10.7631673378831</v>
+        <v>4.9315915880739603</v>
       </c>
       <c r="D19">
-        <v>4.086962873758563</v>
+        <v>4.977637609484205</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.9642140621031335E-2</v>
+        <v>2.4846691988397975E-2</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.0619355330543674</v>
+        <v>1.0503815449859888</v>
       </c>
       <c r="I19">
-        <v>1.5862223941831599</v>
+        <v>1.0457288013475228</v>
       </c>
       <c r="J19">
-        <v>0.60437453282489095</v>
+        <v>0.72239396585102655</v>
       </c>
       <c r="K19">
-        <v>22.479349765634645</v>
+        <v>13.878657917323675</v>
       </c>
       <c r="L19">
-        <v>11.389288637574692</v>
+        <v>14.891511303767768</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B20">
-        <v>7.0762012968041201</v>
+        <v>5.6948942447605004</v>
       </c>
       <c r="C20">
-        <v>10.247882297342301</v>
+        <v>13.504023509059898</v>
       </c>
       <c r="D20">
-        <v>0.71577927163689514</v>
+        <v>8.4177056345113197</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1235,208 +1271,664 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.84757718392174253</v>
+        <v>1.8302872717896306</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.7091918633895451</v>
       </c>
       <c r="J20">
-        <v>0.672172096816398</v>
+        <v>0.50964512591509925</v>
       </c>
       <c r="K20">
-        <v>20.408014545591726</v>
+        <v>17.587292792455816</v>
       </c>
       <c r="L20">
-        <v>10.040849728107982</v>
+        <v>13.265370125669975</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>7.9679284755772102</v>
+        <v>8.8763249469774692</v>
       </c>
       <c r="C21">
-        <v>9.8547244033017698</v>
+        <v>14.410726219816999</v>
       </c>
       <c r="D21">
-        <v>0.42511510689940774</v>
+        <v>3.5337795400232959</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3.3976808871168489E-2</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.78664357003257257</v>
+        <v>2.2764227963988009</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.9189611610297312</v>
       </c>
       <c r="J21">
-        <v>0.70650832114823625</v>
+        <v>0.59923413355383226</v>
       </c>
       <c r="K21">
-        <v>20.835798366738434</v>
+        <v>18.331788902543256</v>
       </c>
       <c r="L21">
-        <v>9.5669148123298875</v>
+        <v>12.447136027289197</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>7.2180426632379495</v>
+        <v>5.2804931908262498</v>
       </c>
       <c r="C22">
-        <v>9.0593537254521408</v>
+        <v>13.958520768318701</v>
       </c>
       <c r="D22">
-        <v>0.26147650077024742</v>
+        <v>9.969537776234521</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.9725042973280899E-2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.4685037799777591E-2</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.74161772511889712</v>
+        <v>2.4005120178668395</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.8597821796335769</v>
       </c>
       <c r="J22">
-        <v>0.66720331135205901</v>
+        <v>0.99976881461965972</v>
       </c>
       <c r="K22">
-        <v>21.720413897165781</v>
+        <v>16.344243312657721</v>
       </c>
       <c r="L22">
-        <v>8.6114032993178515</v>
+        <v>15.595253390675246</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.9574349964941593</v>
       </c>
       <c r="C23">
-        <v>16.087039999999998</v>
+        <v>10.5238668146082</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6.1576769069535002</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.5494119093167202E-2</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.87205634146335476</v>
+        <v>1.8677225091776577</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.8919331379622133</v>
       </c>
       <c r="J23">
-        <v>0.69172218871322366</v>
+        <v>0.59090022973904677</v>
       </c>
       <c r="K23">
-        <v>20.888257528697082</v>
+        <v>18.608947312456664</v>
       </c>
       <c r="L23">
-        <v>8.8012271498988657</v>
+        <v>12.183986761296017</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>10.2734267180671</v>
+        <v>6.4246709795881998</v>
       </c>
       <c r="C24">
-        <v>10.107860202382549</v>
+        <v>13.230903478028299</v>
       </c>
       <c r="D24">
-        <v>0.33617979831722589</v>
+        <v>8.89622712422379</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.0358253878210275E-2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.2097370702979638E-2</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.741902267856695</v>
+        <v>2.388930507989218</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.5566535981374823</v>
       </c>
       <c r="J24">
-        <v>0.7342475766437403</v>
+        <v>1.007585100600441</v>
       </c>
       <c r="K24">
-        <v>23.541907048942512</v>
+        <v>16.814638483865739</v>
       </c>
       <c r="L24">
-        <v>8.3533665552412124</v>
+        <v>15.765702023426996</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25">
+        <v>7.8086961699317596</v>
+      </c>
+      <c r="C25">
+        <v>8.3750199268104808</v>
+      </c>
+      <c r="D25">
+        <v>6.4954349741360282</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5.2161297460552425E-2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.2018146381406174</v>
+      </c>
+      <c r="I25">
+        <v>1.8830626836133784</v>
+      </c>
+      <c r="J25">
+        <v>0.59009192661399024</v>
+      </c>
+      <c r="K25">
+        <v>20.129685189324874</v>
+      </c>
+      <c r="L25">
+        <v>11.875084787937595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>10.013617501830501</v>
+      </c>
+      <c r="C26">
+        <v>10.671239930157899</v>
+      </c>
+      <c r="D26">
+        <v>7.0070442333326994</v>
+      </c>
+      <c r="E26">
+        <v>1.8479159642620695E-2</v>
+      </c>
+      <c r="F26">
+        <v>2.9036511906907373E-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2.3845103961252203</v>
+      </c>
+      <c r="I26">
+        <v>1.8379996456739782</v>
+      </c>
+      <c r="J26">
+        <v>0.9073133954192385</v>
+      </c>
+      <c r="K26">
+        <v>20.125209954813922</v>
+      </c>
+      <c r="L26">
+        <v>14.112397873989336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>9.5776991908105593</v>
+      </c>
+      <c r="C27">
+        <v>14.533312471573099</v>
+      </c>
+      <c r="D27">
+        <v>6.1452486010004224</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3.3997067628360536E-2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2.1514479818003713</v>
+      </c>
+      <c r="I27">
+        <v>1.8366638894472354</v>
+      </c>
+      <c r="J27">
+        <v>0.59590186070302342</v>
+      </c>
+      <c r="K27">
+        <v>19.071945623203231</v>
+      </c>
+      <c r="L27">
+        <v>12.216271441474108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>8.6174521886026803</v>
+      </c>
+      <c r="C28">
+        <v>11.1130072934991</v>
+      </c>
+      <c r="D28">
+        <v>4.7239138335809097</v>
+      </c>
+      <c r="E28">
+        <v>1.6235886751267282E-2</v>
+      </c>
+      <c r="F28">
+        <v>2.8173015948159009E-2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2.5328159873897227</v>
+      </c>
+      <c r="I28">
+        <v>3.9584265335931006</v>
+      </c>
+      <c r="J28">
+        <v>0.73284360178601871</v>
+      </c>
+      <c r="K28">
+        <v>20.044542848265721</v>
+      </c>
+      <c r="L28">
+        <v>12.47624295125717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>10.789597181777301</v>
+      </c>
+      <c r="C29">
+        <v>11.262479454170698</v>
+      </c>
+      <c r="D29">
+        <v>4.5061739873492739</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5.62129585959966E-2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2.2300637709788829</v>
+      </c>
+      <c r="I29">
+        <v>2.0934791070692653</v>
+      </c>
+      <c r="J29">
+        <v>0.5708169616136517</v>
+      </c>
+      <c r="K29">
+        <v>22.004527192691551</v>
+      </c>
+      <c r="L29">
+        <v>11.674897171006089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>5.3751065027012004</v>
+      </c>
+      <c r="C30">
+        <v>14.595386670981501</v>
+      </c>
+      <c r="D30">
+        <v>10.61768457672342</v>
+      </c>
+      <c r="E30">
+        <v>2.2062520345487717E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.7707278408184495E-2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2.6478976994462142</v>
+      </c>
+      <c r="I30">
+        <v>2.0526581846454017</v>
+      </c>
+      <c r="J30">
+        <v>1.0243616598364678</v>
+      </c>
+      <c r="K30">
+        <v>19.543377808992236</v>
+      </c>
+      <c r="L30">
+        <v>15.006687740906443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>11.015015507992999</v>
+      </c>
+      <c r="C31">
+        <v>10.7631673378831</v>
+      </c>
+      <c r="D31">
+        <v>4.086962873758563</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2.9642140621031335E-2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2.0619355330543674</v>
+      </c>
+      <c r="I31">
+        <v>1.5862223941831599</v>
+      </c>
+      <c r="J31">
+        <v>0.60437453282489095</v>
+      </c>
+      <c r="K31">
+        <v>22.479349765634645</v>
+      </c>
+      <c r="L31">
+        <v>11.389288637574692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>7.0762012968041201</v>
+      </c>
+      <c r="C32">
+        <v>10.247882297342301</v>
+      </c>
+      <c r="D32">
+        <v>0.71577927163689514</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.84757718392174253</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.672172096816398</v>
+      </c>
+      <c r="K32">
+        <v>20.408014545591726</v>
+      </c>
+      <c r="L32">
+        <v>10.040849728107982</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>7.9679284755772102</v>
+      </c>
+      <c r="C33">
+        <v>9.8547244033017698</v>
+      </c>
+      <c r="D33">
+        <v>0.42511510689940774</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.78664357003257257</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.70650832114823625</v>
+      </c>
+      <c r="K33">
+        <v>20.835798366738434</v>
+      </c>
+      <c r="L33">
+        <v>9.5669148123298875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>7.2180426632379495</v>
+      </c>
+      <c r="C34">
+        <v>9.0593537254521408</v>
+      </c>
+      <c r="D34">
+        <v>0.26147650077024742</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.74161772511889712</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.66720331135205901</v>
+      </c>
+      <c r="K34">
+        <v>21.720413897165781</v>
+      </c>
+      <c r="L34">
+        <v>8.6114032993178515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>16.087039999999998</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.87205634146335476</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.69172218871322366</v>
+      </c>
+      <c r="K35">
+        <v>20.888257528697082</v>
+      </c>
+      <c r="L35">
+        <v>8.8012271498988657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>10.2734267180671</v>
+      </c>
+      <c r="C36">
+        <v>10.107860202382549</v>
+      </c>
+      <c r="D36">
+        <v>0.33617979831722589</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.741902267856695</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.7342475766437403</v>
+      </c>
+      <c r="K36">
+        <v>23.541907048942512</v>
+      </c>
+      <c r="L36">
+        <v>8.3533665552412124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
         <v>10.0218342241575</v>
       </c>
-      <c r="C25">
+      <c r="C37">
         <v>14.0616433687791</v>
       </c>
-      <c r="D25">
+      <c r="D37">
         <v>6.3978877855998609E-2</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0.8083541887803366</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>0.74358895198808428</v>
       </c>
-      <c r="K25">
+      <c r="K37">
         <v>24.593931555002502</v>
       </c>
-      <c r="L25">
+      <c r="L37">
         <v>7.6253200076755041</v>
       </c>
     </row>
